--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/BCD/20/seed2/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/BCD/20/seed2/result_data_KNN.xlsx
@@ -474,7 +474,7 @@
         <v>-21.82</v>
       </c>
       <c r="B3" t="n">
-        <v>6.656000000000001</v>
+        <v>6.14</v>
       </c>
       <c r="C3" t="n">
         <v>-12.16</v>
@@ -522,7 +522,7 @@
         <v>-15.25</v>
       </c>
       <c r="D6" t="n">
-        <v>-7.57</v>
+        <v>-7.897</v>
       </c>
     </row>
     <row r="7">
@@ -628,7 +628,7 @@
         <v>-22.38</v>
       </c>
       <c r="B14" t="n">
-        <v>5.682</v>
+        <v>5.775</v>
       </c>
       <c r="C14" t="n">
         <v>-11.3</v>
@@ -645,7 +645,7 @@
         <v>5.32</v>
       </c>
       <c r="C15" t="n">
-        <v>-13.77</v>
+        <v>-12.896</v>
       </c>
       <c r="D15" t="n">
         <v>-10.04</v>
@@ -656,7 +656,7 @@
         <v>-22.39</v>
       </c>
       <c r="B16" t="n">
-        <v>4.646</v>
+        <v>5.083</v>
       </c>
       <c r="C16" t="n">
         <v>-13.59</v>
@@ -690,7 +690,7 @@
         <v>-15.14</v>
       </c>
       <c r="D18" t="n">
-        <v>-8.577999999999999</v>
+        <v>-8.461</v>
       </c>
     </row>
     <row r="19">
@@ -704,7 +704,7 @@
         <v>-12.15</v>
       </c>
       <c r="D19" t="n">
-        <v>-7.94</v>
+        <v>-7.893000000000001</v>
       </c>
     </row>
     <row r="20">
@@ -726,10 +726,10 @@
         <v>-19.55</v>
       </c>
       <c r="B21" t="n">
-        <v>9.266</v>
+        <v>9.459000000000001</v>
       </c>
       <c r="C21" t="n">
-        <v>-11.986</v>
+        <v>-12.202</v>
       </c>
       <c r="D21" t="n">
         <v>-6.74</v>
@@ -743,7 +743,7 @@
         <v>8.81</v>
       </c>
       <c r="C22" t="n">
-        <v>-12.304</v>
+        <v>-12.692</v>
       </c>
       <c r="D22" t="n">
         <v>-6.8</v>
@@ -754,7 +754,7 @@
         <v>-20.35</v>
       </c>
       <c r="B23" t="n">
-        <v>9.242000000000001</v>
+        <v>8.843999999999999</v>
       </c>
       <c r="C23" t="n">
         <v>-12.89</v>
@@ -771,7 +771,7 @@
         <v>7.41</v>
       </c>
       <c r="C24" t="n">
-        <v>-11.82</v>
+        <v>-12.019</v>
       </c>
       <c r="D24" t="n">
         <v>-7.7</v>
@@ -782,7 +782,7 @@
         <v>-21.51</v>
       </c>
       <c r="B25" t="n">
-        <v>6.212000000000001</v>
+        <v>5.705</v>
       </c>
       <c r="C25" t="n">
         <v>-11.07</v>
@@ -796,7 +796,7 @@
         <v>-21.21</v>
       </c>
       <c r="B26" t="n">
-        <v>5.83</v>
+        <v>6.075</v>
       </c>
       <c r="C26" t="n">
         <v>-10.59</v>
@@ -813,7 +813,7 @@
         <v>5.54</v>
       </c>
       <c r="C27" t="n">
-        <v>-12.266</v>
+        <v>-12.437</v>
       </c>
       <c r="D27" t="n">
         <v>-8.550000000000001</v>
@@ -827,7 +827,7 @@
         <v>5.47</v>
       </c>
       <c r="C28" t="n">
-        <v>-12.782</v>
+        <v>-12.521</v>
       </c>
       <c r="D28" t="n">
         <v>-7.75</v>
@@ -838,7 +838,7 @@
         <v>-21.48</v>
       </c>
       <c r="B29" t="n">
-        <v>6.212000000000001</v>
+        <v>5.720999999999999</v>
       </c>
       <c r="C29" t="n">
         <v>-11.02</v>
@@ -928,7 +928,7 @@
         <v>-13.02</v>
       </c>
       <c r="D35" t="n">
-        <v>-7.696000000000001</v>
+        <v>-8.065999999999999</v>
       </c>
     </row>
     <row r="36">
@@ -939,7 +939,7 @@
         <v>9.84</v>
       </c>
       <c r="C36" t="n">
-        <v>-13.542</v>
+        <v>-13.045</v>
       </c>
       <c r="D36" t="n">
         <v>-9.050000000000001</v>
@@ -981,7 +981,7 @@
         <v>9.35</v>
       </c>
       <c r="C39" t="n">
-        <v>-12.954</v>
+        <v>-13.019</v>
       </c>
       <c r="D39" t="n">
         <v>-8.93</v>
@@ -992,7 +992,7 @@
         <v>-19.21</v>
       </c>
       <c r="B40" t="n">
-        <v>9.002000000000001</v>
+        <v>9.082000000000001</v>
       </c>
       <c r="C40" t="n">
         <v>-12.94</v>
@@ -1054,7 +1054,7 @@
         <v>-10.47</v>
       </c>
       <c r="D44" t="n">
-        <v>-7.294</v>
+        <v>-7.06</v>
       </c>
     </row>
     <row r="45">
@@ -1065,7 +1065,7 @@
         <v>5.73</v>
       </c>
       <c r="C45" t="n">
-        <v>-12.702</v>
+        <v>-12.505</v>
       </c>
       <c r="D45" t="n">
         <v>-7.87</v>
@@ -1096,7 +1096,7 @@
         <v>-11.84</v>
       </c>
       <c r="D47" t="n">
-        <v>-7.781999999999999</v>
+        <v>-7.508</v>
       </c>
     </row>
     <row r="48">
@@ -1107,7 +1107,7 @@
         <v>5.63</v>
       </c>
       <c r="C48" t="n">
-        <v>-11.416</v>
+        <v>-11.403</v>
       </c>
       <c r="D48" t="n">
         <v>-6.88</v>
@@ -1121,7 +1121,7 @@
         <v>4.95</v>
       </c>
       <c r="C49" t="n">
-        <v>-13.596</v>
+        <v>-12.61</v>
       </c>
       <c r="D49" t="n">
         <v>-9.210000000000001</v>
@@ -1138,7 +1138,7 @@
         <v>-14.51</v>
       </c>
       <c r="D50" t="n">
-        <v>-8.539999999999999</v>
+        <v>-8.564</v>
       </c>
     </row>
     <row r="51">
@@ -1152,7 +1152,7 @@
         <v>-13.17</v>
       </c>
       <c r="D51" t="n">
-        <v>-8.59</v>
+        <v>-8.283000000000001</v>
       </c>
     </row>
     <row r="52">
@@ -1163,10 +1163,10 @@
         <v>6.39</v>
       </c>
       <c r="C52" t="n">
-        <v>-11.766</v>
+        <v>-11.603</v>
       </c>
       <c r="D52" t="n">
-        <v>-7.965999999999999</v>
+        <v>-7.619</v>
       </c>
     </row>
     <row r="53">
@@ -1174,10 +1174,10 @@
         <v>-21.36</v>
       </c>
       <c r="B53" t="n">
-        <v>5.782</v>
+        <v>5.601000000000001</v>
       </c>
       <c r="C53" t="n">
-        <v>-10.246</v>
+        <v>-10.446</v>
       </c>
       <c r="D53" t="n">
         <v>-7.23</v>
@@ -1191,7 +1191,7 @@
         <v>6.01</v>
       </c>
       <c r="C54" t="n">
-        <v>-12.492</v>
+        <v>-12.418</v>
       </c>
       <c r="D54" t="n">
         <v>-8.01</v>
@@ -1208,7 +1208,7 @@
         <v>-15.79</v>
       </c>
       <c r="D55" t="n">
-        <v>-8.744</v>
+        <v>-8.499000000000001</v>
       </c>
     </row>
     <row r="56">
@@ -1230,13 +1230,13 @@
         <v>-22.67</v>
       </c>
       <c r="B57" t="n">
-        <v>5.090000000000001</v>
+        <v>5.673</v>
       </c>
       <c r="C57" t="n">
-        <v>-12.6</v>
+        <v>-13.019</v>
       </c>
       <c r="D57" t="n">
-        <v>-8.724</v>
+        <v>-8.456999999999999</v>
       </c>
     </row>
     <row r="58">
@@ -1250,7 +1250,7 @@
         <v>-15.6</v>
       </c>
       <c r="D58" t="n">
-        <v>-7.976000000000001</v>
+        <v>-8.175000000000001</v>
       </c>
     </row>
     <row r="59">
@@ -1258,7 +1258,7 @@
         <v>-21.94</v>
       </c>
       <c r="B59" t="n">
-        <v>6.022</v>
+        <v>5.274</v>
       </c>
       <c r="C59" t="n">
         <v>-14.55</v>
@@ -1334,7 +1334,7 @@
         <v>-10.62</v>
       </c>
       <c r="D64" t="n">
-        <v>-8.138</v>
+        <v>-7.816999999999998</v>
       </c>
     </row>
     <row r="65">
@@ -1342,7 +1342,7 @@
         <v>-22.48</v>
       </c>
       <c r="B65" t="n">
-        <v>6.312</v>
+        <v>6.068</v>
       </c>
       <c r="C65" t="n">
         <v>-11.86</v>
@@ -1362,7 +1362,7 @@
         <v>-10.51</v>
       </c>
       <c r="D66" t="n">
-        <v>-7.694</v>
+        <v>-7.627</v>
       </c>
     </row>
     <row r="67">
@@ -1398,7 +1398,7 @@
         <v>-21.67</v>
       </c>
       <c r="B69" t="n">
-        <v>5.228</v>
+        <v>6.233</v>
       </c>
       <c r="C69" t="n">
         <v>-10.8</v>
@@ -1415,7 +1415,7 @@
         <v>4.05</v>
       </c>
       <c r="C70" t="n">
-        <v>-10.524</v>
+        <v>-11.581</v>
       </c>
       <c r="D70" t="n">
         <v>-7.03</v>
@@ -1429,7 +1429,7 @@
         <v>4.58</v>
       </c>
       <c r="C71" t="n">
-        <v>-10.184</v>
+        <v>-10.85</v>
       </c>
       <c r="D71" t="n">
         <v>-7.44</v>
@@ -1538,7 +1538,7 @@
         <v>-20.57</v>
       </c>
       <c r="B79" t="n">
-        <v>6.012</v>
+        <v>6.759</v>
       </c>
       <c r="C79" t="n">
         <v>-9.779999999999999</v>
@@ -1558,7 +1558,7 @@
         <v>-12.35</v>
       </c>
       <c r="D80" t="n">
-        <v>-7.478</v>
+        <v>-7.872999999999999</v>
       </c>
     </row>
     <row r="81">
@@ -1594,13 +1594,13 @@
         <v>-22.74</v>
       </c>
       <c r="B83" t="n">
-        <v>5.500000000000001</v>
+        <v>5.359</v>
       </c>
       <c r="C83" t="n">
         <v>-13.03</v>
       </c>
       <c r="D83" t="n">
-        <v>-9.034000000000001</v>
+        <v>-8.735000000000001</v>
       </c>
     </row>
     <row r="84">
@@ -1639,7 +1639,7 @@
         <v>4.69</v>
       </c>
       <c r="C86" t="n">
-        <v>-13.452</v>
+        <v>-13.339</v>
       </c>
       <c r="D86" t="n">
         <v>-8.17</v>
@@ -1653,7 +1653,7 @@
         <v>5.81</v>
       </c>
       <c r="C87" t="n">
-        <v>-13.836</v>
+        <v>-13.474</v>
       </c>
       <c r="D87" t="n">
         <v>-8.869999999999999</v>
@@ -1681,7 +1681,7 @@
         <v>5.51</v>
       </c>
       <c r="C89" t="n">
-        <v>-13.088</v>
+        <v>-13.153</v>
       </c>
       <c r="D89" t="n">
         <v>-8.140000000000001</v>
@@ -1706,7 +1706,7 @@
         <v>-21.82</v>
       </c>
       <c r="B91" t="n">
-        <v>6.656000000000001</v>
+        <v>6.14</v>
       </c>
       <c r="C91" t="n">
         <v>-12.06</v>
@@ -1726,7 +1726,7 @@
         <v>-9.789999999999999</v>
       </c>
       <c r="D92" t="n">
-        <v>-6.946000000000001</v>
+        <v>-7.058</v>
       </c>
     </row>
     <row r="93">
@@ -1734,7 +1734,7 @@
         <v>-21.49</v>
       </c>
       <c r="B93" t="n">
-        <v>6.242</v>
+        <v>6.303</v>
       </c>
       <c r="C93" t="n">
         <v>-10.09</v>
@@ -1754,7 +1754,7 @@
         <v>-9.49</v>
       </c>
       <c r="D94" t="n">
-        <v>-7.291999999999999</v>
+        <v>-7.184</v>
       </c>
     </row>
     <row r="95">
@@ -1782,7 +1782,7 @@
         <v>-10.65</v>
       </c>
       <c r="D96" t="n">
-        <v>-7.858000000000001</v>
+        <v>-7.35</v>
       </c>
     </row>
     <row r="97">
@@ -1796,7 +1796,7 @@
         <v>-10.47</v>
       </c>
       <c r="D97" t="n">
-        <v>-7.26</v>
+        <v>-7.290999999999999</v>
       </c>
     </row>
     <row r="98">
@@ -1832,7 +1832,7 @@
         <v>-21.08</v>
       </c>
       <c r="B100" t="n">
-        <v>5.45</v>
+        <v>5.525</v>
       </c>
       <c r="C100" t="n">
         <v>-13.95</v>
@@ -1849,10 +1849,10 @@
         <v>8.42</v>
       </c>
       <c r="C101" t="n">
-        <v>-11.418</v>
+        <v>-12.083</v>
       </c>
       <c r="D101" t="n">
-        <v>-7.364</v>
+        <v>-7.725</v>
       </c>
     </row>
     <row r="102">
@@ -1874,7 +1874,7 @@
         <v>-21.66</v>
       </c>
       <c r="B103" t="n">
-        <v>6.69</v>
+        <v>5.684</v>
       </c>
       <c r="C103" t="n">
         <v>-14.32</v>
